--- a/f. Anaconda/Annexes/Presidents.xlsx
+++ b/f. Anaconda/Annexes/Presidents.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
   <si>
     <t xml:space="preserve">President</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t xml:space="preserve">Virginia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA()</t>
   </si>
   <si>
     <t xml:space="preserve">842.0</t>
@@ -220,6 +217,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -297,17 +295,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M16" activeCellId="0" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.74"/>
@@ -320,7 +318,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.82"/>
   </cols>
   <sheetData>
@@ -384,37 +382,31 @@
       <c r="F2" s="0" t="n">
         <v>69</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="I2" s="0" t="n">
         <v>69</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="L2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="M2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1797</v>
@@ -423,39 +415,33 @@
         <v>61</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>132</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="I3" s="0" t="n">
         <v>139</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="L3" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="M3" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="N3" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>14</v>
@@ -472,34 +458,28 @@
       <c r="F4" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="I4" s="0" t="n">
         <v>137</v>
       </c>
       <c r="J4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="L4" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="M4" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="N4" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>14</v>
@@ -516,34 +496,28 @@
       <c r="F5" s="0" t="n">
         <v>122</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="I5" s="0" t="n">
         <v>176</v>
       </c>
       <c r="J5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="0" t="s">
+      <c r="N5" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>14</v>
@@ -560,37 +534,31 @@
       <c r="F6" s="0" t="n">
         <v>183</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="I6" s="0" t="n">
         <v>221</v>
       </c>
       <c r="J6" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1825</v>
@@ -599,39 +567,33 @@
         <v>57</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>84</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="I7" s="0" t="n">
         <v>261</v>
       </c>
       <c r="J7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>14</v>
@@ -643,7 +605,7 @@
         <v>61</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>178</v>
@@ -658,27 +620,24 @@
         <v>261</v>
       </c>
       <c r="J8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="L8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1837</v>
@@ -687,7 +646,7 @@
         <v>54</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>170</v>
@@ -702,27 +661,24 @@
         <v>294</v>
       </c>
       <c r="J9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>54</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>55</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1841</v>
@@ -731,7 +687,7 @@
         <v>68</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>234</v>
@@ -746,19 +702,19 @@
         <v>294</v>
       </c>
       <c r="J10" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="L10" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="0" t="s">
+      <c r="M10" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="M10" s="0" t="s">
+      <c r="N10" s="0" t="s">
         <v>60</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
